--- a/FB_Test Case Template.xlsx
+++ b/FB_Test Case Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNEGHA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC58853-F9A2-450A-B1C0-96988DBC7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EF88B-A3B1-46AD-AEE5-452E2719B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="177">
   <si>
     <t>Sl.No</t>
   </si>
@@ -390,6 +390,180 @@
   </si>
   <si>
     <t>sign-up and login modules test cases</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>facebook logo</t>
+  </si>
+  <si>
+    <t>Recommend post should be refreshed when user click on facebook logo icon</t>
+  </si>
+  <si>
+    <t>user should have signed in the facebook account</t>
+  </si>
+  <si>
+    <t>click on the facebook logo icon</t>
+  </si>
+  <si>
+    <t>Home page will be refreshed and new recommended post will be displayed</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>search box</t>
+  </si>
+  <si>
+    <t>user should have signed in and should be in home page</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Related people, photos, videos, group, page, event, article for the corresponding name will be displayed</t>
+  </si>
+  <si>
+    <t>Filter by post</t>
+  </si>
+  <si>
+    <t>User enter the name in search box. The related  people, photos, videos, group, page, event, article  for that corresponding name will be displayed</t>
+  </si>
+  <si>
+    <t>User should have signed in and should be in search page</t>
+  </si>
+  <si>
+    <t>posts(recent post ,post you have seen, date posted,posts from, tagged location)</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: post</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Filter by people</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: people</t>
+  </si>
+  <si>
+    <t>peoples(friends of friend, city, education, work)</t>
+  </si>
+  <si>
+    <t>User enter the name in the search box.user can filter the people by Friend of Friend, city,education, work.</t>
+  </si>
+  <si>
+    <t>User enter the name in the search box.And user can filter the post by recent post, post's you have seen, date posted,posts from, tagged location.</t>
+  </si>
+  <si>
+    <t>Filter by recent post</t>
+  </si>
+  <si>
+    <t>User can search recent posts by using filter option</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: recent post</t>
+  </si>
+  <si>
+    <t>Related to the given name the posts will be displayed.</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Filter by posts you've seen</t>
+  </si>
+  <si>
+    <t>User can search by posts they have seen using filter option</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: Post you've seen</t>
+  </si>
+  <si>
+    <t>Related to the given name, post viewed by them will be displayed</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>Filter by Date posted</t>
+  </si>
+  <si>
+    <t>User can search post by particular date using filter option</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: Post:Date posted</t>
+  </si>
+  <si>
+    <t>Related to the given name post created at the particular date will be displayed</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>Filter by posts from</t>
+  </si>
+  <si>
+    <t>User can search posts from you, your friend,your groups and pages, public posts</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: Post:Posts from</t>
+  </si>
+  <si>
+    <t>Related to the given name Posts from my friend, groups nad page, public post will be displayed.</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>Filter by tagged location</t>
+  </si>
+  <si>
+    <t>User can search post by Tagged location using filter option</t>
+  </si>
+  <si>
+    <t>click on search icon. Search:jency click on Filter: Post:Tagged location</t>
+  </si>
+  <si>
+    <t>Related to the given name tagged location post will be displayed.</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>~logo is unique~size and color of the logo is attractive</t>
+  </si>
+  <si>
+    <t>~use of placeholder in search box is usefull for user.~search field is aligned correctly~use of filter option in search field is useful for user~recent history is helpful for user to search the existing name</t>
+  </si>
+  <si>
+    <t>~use of post option in search field with diffrent category is useful for user to search that corresponding name.~new post is updated for every second and is visible to all the user</t>
+  </si>
+  <si>
+    <t>~this option very helpful if user wishes to view the already seen post.</t>
+  </si>
+  <si>
+    <t>~this filter help user to browse post based on year</t>
+  </si>
+  <si>
+    <t>~categorising post from my friend, group and page, public post helps user go browse post easily.</t>
+  </si>
+  <si>
+    <t>~If the user want to search the person through tagged location this field useful for them.</t>
+  </si>
+  <si>
+    <t>~recent post filter hepls the user to get the latest new feed.~alingment of the field is good and viewable</t>
+  </si>
+  <si>
+    <t>~each filter is diffrentiable~this filter helps the user to browse their neighbors and friends easily.</t>
+  </si>
+  <si>
+    <t>search page and home page of test cases has been added</t>
   </si>
 </sst>
 </file>
@@ -469,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -488,6 +662,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA79E05-3285-40C9-88E5-6A0361E3A7F9}">
-  <dimension ref="C6:F7"/>
+  <dimension ref="C6:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,6 +1026,20 @@
         <v>118</v>
       </c>
     </row>
+    <row r="8" spans="3:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44526</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -853,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD8726-149E-4A0C-B29E-5D9EA276DA49}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1612,294 @@
         <v>115</v>
       </c>
     </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
